--- a/data/hotels_by_city/Houston/Houston_shard_613.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_613.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d239857-Reviews-Studio_6_Houston_Spring-Houston_Texas.html</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Studio-6-Houston-Spring.h50900.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,201 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r590731864-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239857</t>
+  </si>
+  <si>
+    <t>590731864</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Nice place for the price</t>
+  </si>
+  <si>
+    <t>This was my first time at a extended stay hotel. The room was nice. I enjoyed the kitchen with pans, etc. The staff was very professional and friendly. The property looked very well maintained. I will return in the future.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r494139733-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494139733</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Value </t>
+  </si>
+  <si>
+    <t>Quick trip with my family and we were planning to get there late and leave early. I called the front desk to let them know and Martha was AMAZING. So kind, friendly and helpful. The outside was nice and it seemed like a safe neighborhood. The rooms were clean but unkept. The first room we got the toilet seat was completely broken but Martha was great and we got another room quick. The next room the bathroom doorknob was barley hanging on, the towel rack was broken and the sheets had cigarette holes in them.  So because we wanted something cheep and clean and Martha at the front desk was so nice, we would stay again. I gave only 3 stars for all the broken stuff. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Quick trip with my family and we were planning to get there late and leave early. I called the front desk to let them know and Martha was AMAZING. So kind, friendly and helpful. The outside was nice and it seemed like a safe neighborhood. The rooms were clean but unkept. The first room we got the toilet seat was completely broken but Martha was great and we got another room quick. The next room the bathroom doorknob was barley hanging on, the towel rack was broken and the sheets had cigarette holes in them.  So because we wanted something cheep and clean and Martha at the front desk was so nice, we would stay again. I gave only 3 stars for all the broken stuff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r493961141-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493961141</t>
+  </si>
+  <si>
+    <t>ANN AT FRONT DESK WAS WONDERFUL SHE MADE SURE I GOT A ROOM</t>
+  </si>
+  <si>
+    <t>on sat  june17,2017 I walked in the office ann was working at the time I ask if she had a room she said yes I told he I had 3 babys and a 10 year old she offerd a downstairs room for me. but it be a while ann said she save the room for me.this lady was very careing and helpful to me she went out of her way to make sure I was happy.i think we need more people like ann working and I want to thank ann very much and may god bless you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r297375465-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297375465</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Nooooooooooo.        Should  be 0 stars</t>
+  </si>
+  <si>
+    <t>Do not stay here!!   Spend the extra $ to stay anywhere but here!!!   Was told at 8:05pm that I had to wait for 45 minutes to check in because the computers were off!!!   What hotel closes at 8????   What hotel ever closes??????  Absolutely terrible experience.   Management came to check me in at 8:45 and all he said was he been in business for 12 years and he always closed early that's just the way it was....    They need to add that they do not allow checkins during certain times.   He said they don't do very much internet reservations so it wasn't important.   The room smelled of cleaning products couldn't breath all night from the high fumes in the room ... I will never use motel 6 againMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Do not stay here!!   Spend the extra $ to stay anywhere but here!!!   Was told at 8:05pm that I had to wait for 45 minutes to check in because the computers were off!!!   What hotel closes at 8????   What hotel ever closes??????  Absolutely terrible experience.   Management came to check me in at 8:45 and all he said was he been in business for 12 years and he always closed early that's just the way it was....    They need to add that they do not allow checkins during certain times.   He said they don't do very much internet reservations so it wasn't important.   The room smelled of cleaning products couldn't breath all night from the high fumes in the room ... I will never use motel 6 againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r231758051-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231758051</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Check in say at 3pm but wasn't ready until 4. Pay cash and had to give 100 deposit for paying cash. Room dirtys and i was told maid would two times week  but only could one time week and couldn't speak english. Then check out they wouldn't give me my deposit back.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Studio 6 Houston - Spring, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Check in say at 3pm but wasn't ready until 4. Pay cash and had to give 100 deposit for paying cash. Room dirtys and i was told maid would two times week  but only could one time week and couldn't speak english. Then check out they wouldn't give me my deposit back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r186589078-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186589078</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Not recommended, even for the price</t>
+  </si>
+  <si>
+    <t>You get what you pay for...most of the time. For $55 per night (queen, Nov 2013) I'm not expecting a Sleep Number bed. I do expect a clean room. I was on a road trip about 4 hours from home. Whenever I know I'm sleeping in a low-end motel I travel with a memory foam pad and a sleeping bag and my own pillows. I am VERY thankful I did. The mattress - it had a plastic cover on it. I was afraid to look under the pad at the actual mattress, so I didn't. The bathroom walls needed to be wiped down - they had a drippy look, as though condensation built up and ran through the dirt on the walls over time. The refrigerator was incredibly dirty on the outside. It looked clean enough inside, but I was concerned so I kept my food in my little cooler that I had for the drive. The tub was dirty on the walls, and had mildew built up on the silicone calk around the faucet. It appeared to have had a 'once over' type of cleaning but a deeper clean was badly needed. Also, there was evidence of many residents living there. For the grounds - dirty, dirty dirty. It was obvious it had been weeks since a good sweeping had been done - leaves, dirt, grime was built up in all the corners of the stairs and anywhere else...You get what you pay for...most of the time. For $55 per night (queen, Nov 2013) I'm not expecting a Sleep Number bed. I do expect a clean room. I was on a road trip about 4 hours from home. Whenever I know I'm sleeping in a low-end motel I travel with a memory foam pad and a sleeping bag and my own pillows. I am VERY thankful I did. The mattress - it had a plastic cover on it. I was afraid to look under the pad at the actual mattress, so I didn't. The bathroom walls needed to be wiped down - they had a drippy look, as though condensation built up and ran through the dirt on the walls over time. The refrigerator was incredibly dirty on the outside. It looked clean enough inside, but I was concerned so I kept my food in my little cooler that I had for the drive. The tub was dirty on the walls, and had mildew built up on the silicone calk around the faucet. It appeared to have had a 'once over' type of cleaning but a deeper clean was badly needed. Also, there was evidence of many residents living there. For the grounds - dirty, dirty dirty. It was obvious it had been weeks since a good sweeping had been done - leaves, dirt, grime was built up in all the corners of the stairs and anywhere else it could hide. I recommend highly that you stay someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for...most of the time. For $55 per night (queen, Nov 2013) I'm not expecting a Sleep Number bed. I do expect a clean room. I was on a road trip about 4 hours from home. Whenever I know I'm sleeping in a low-end motel I travel with a memory foam pad and a sleeping bag and my own pillows. I am VERY thankful I did. The mattress - it had a plastic cover on it. I was afraid to look under the pad at the actual mattress, so I didn't. The bathroom walls needed to be wiped down - they had a drippy look, as though condensation built up and ran through the dirt on the walls over time. The refrigerator was incredibly dirty on the outside. It looked clean enough inside, but I was concerned so I kept my food in my little cooler that I had for the drive. The tub was dirty on the walls, and had mildew built up on the silicone calk around the faucet. It appeared to have had a 'once over' type of cleaning but a deeper clean was badly needed. Also, there was evidence of many residents living there. For the grounds - dirty, dirty dirty. It was obvious it had been weeks since a good sweeping had been done - leaves, dirt, grime was built up in all the corners of the stairs and anywhere else...You get what you pay for...most of the time. For $55 per night (queen, Nov 2013) I'm not expecting a Sleep Number bed. I do expect a clean room. I was on a road trip about 4 hours from home. Whenever I know I'm sleeping in a low-end motel I travel with a memory foam pad and a sleeping bag and my own pillows. I am VERY thankful I did. The mattress - it had a plastic cover on it. I was afraid to look under the pad at the actual mattress, so I didn't. The bathroom walls needed to be wiped down - they had a drippy look, as though condensation built up and ran through the dirt on the walls over time. The refrigerator was incredibly dirty on the outside. It looked clean enough inside, but I was concerned so I kept my food in my little cooler that I had for the drive. The tub was dirty on the walls, and had mildew built up on the silicone calk around the faucet. It appeared to have had a 'once over' type of cleaning but a deeper clean was badly needed. Also, there was evidence of many residents living there. For the grounds - dirty, dirty dirty. It was obvious it had been weeks since a good sweeping had been done - leaves, dirt, grime was built up in all the corners of the stairs and anywhere else it could hide. I recommend highly that you stay someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r36063259-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>36063259</t>
+  </si>
+  <si>
+    <t>07/28/2009</t>
+  </si>
+  <si>
+    <t>NO, NO, NO!!!!</t>
+  </si>
+  <si>
+    <t>The bathroom door locked behind my child at 3am and wouldn't open.  My husband had to go to Super Wal-Mart and get tools to get her out.  The office had closed at 8pm and the only other option was to call 911 - which I should have done!!  I called the next day to notify the office and their response was to put a towel in the door and tell the kids not to close it all the way, because they had no more rooms to move us in!!  A/C didn't cool - fresh out of maintenace guys and again, no room to move us in!!  Paid cash for my room and had to give a $25 cash deposit and when I was ready to leave town at 11am, the office didn't open until noon to give me my $25 back!  DO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>The bathroom door locked behind my child at 3am and wouldn't open.  My husband had to go to Super Wal-Mart and get tools to get her out.  The office had closed at 8pm and the only other option was to call 911 - which I should have done!!  I called the next day to notify the office and their response was to put a towel in the door and tell the kids not to close it all the way, because they had no more rooms to move us in!!  A/C didn't cool - fresh out of maintenace guys and again, no room to move us in!!  Paid cash for my room and had to give a $25 cash deposit and when I was ready to leave town at 11am, the office didn't open until noon to give me my $25 back!  DO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r26661263-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26661263</t>
+  </si>
+  <si>
+    <t>03/23/2009</t>
+  </si>
+  <si>
+    <t>I wouldnt advise</t>
+  </si>
+  <si>
+    <t>The only reason I stayed in this studio was because I relocated to Houston within a week, so I had to get to a place kind of quickly, looking at the website I saw that the facilities were actually pretty decent. Upon check in I had an issue where someone rather than myself was paying for the room with a credit card that they had reserved online, but when I arrived at the hotel I was told if the person is not present I couldnt check in even though the person reserverd the room under my name but paid for it with their card. With that being said I had to fax forms back and forth stating that everything was legit. With credit card theft pretty rampant I couldnt complain. When I got to the room the room smell like old carpet. the mattress on the bed was about 6 inches thick. (cheap thin mattress) and the mattress sunk in the middle,  I could only imagine, what has happened in that room. The bathroom shower had mold on the shower tile, and the lighting was poor. I had to buy my own clorox bleach spray to make sure the shower was clean to my liking. I wouldnt cook in the place all the dishes and cookware looked like salvation army cookware. The television didnt get local channels only random cable stations. I wouldnt recommend this stay, but hey you get...The only reason I stayed in this studio was because I relocated to Houston within a week, so I had to get to a place kind of quickly, looking at the website I saw that the facilities were actually pretty decent. Upon check in I had an issue where someone rather than myself was paying for the room with a credit card that they had reserved online, but when I arrived at the hotel I was told if the person is not present I couldnt check in even though the person reserverd the room under my name but paid for it with their card. With that being said I had to fax forms back and forth stating that everything was legit. With credit card theft pretty rampant I couldnt complain. When I got to the room the room smell like old carpet. the mattress on the bed was about 6 inches thick. (cheap thin mattress) and the mattress sunk in the middle,  I could only imagine, what has happened in that room. The bathroom shower had mold on the shower tile, and the lighting was poor. I had to buy my own clorox bleach spray to make sure the shower was clean to my liking. I wouldnt cook in the place all the dishes and cookware looked like salvation army cookware. The television didnt get local channels only random cable stations. I wouldnt recommend this stay, but hey you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The only reason I stayed in this studio was because I relocated to Houston within a week, so I had to get to a place kind of quickly, looking at the website I saw that the facilities were actually pretty decent. Upon check in I had an issue where someone rather than myself was paying for the room with a credit card that they had reserved online, but when I arrived at the hotel I was told if the person is not present I couldnt check in even though the person reserverd the room under my name but paid for it with their card. With that being said I had to fax forms back and forth stating that everything was legit. With credit card theft pretty rampant I couldnt complain. When I got to the room the room smell like old carpet. the mattress on the bed was about 6 inches thick. (cheap thin mattress) and the mattress sunk in the middle,  I could only imagine, what has happened in that room. The bathroom shower had mold on the shower tile, and the lighting was poor. I had to buy my own clorox bleach spray to make sure the shower was clean to my liking. I wouldnt cook in the place all the dishes and cookware looked like salvation army cookware. The television didnt get local channels only random cable stations. I wouldnt recommend this stay, but hey you get...The only reason I stayed in this studio was because I relocated to Houston within a week, so I had to get to a place kind of quickly, looking at the website I saw that the facilities were actually pretty decent. Upon check in I had an issue where someone rather than myself was paying for the room with a credit card that they had reserved online, but when I arrived at the hotel I was told if the person is not present I couldnt check in even though the person reserverd the room under my name but paid for it with their card. With that being said I had to fax forms back and forth stating that everything was legit. With credit card theft pretty rampant I couldnt complain. When I got to the room the room smell like old carpet. the mattress on the bed was about 6 inches thick. (cheap thin mattress) and the mattress sunk in the middle,  I could only imagine, what has happened in that room. The bathroom shower had mold on the shower tile, and the lighting was poor. I had to buy my own clorox bleach spray to make sure the shower was clean to my liking. I wouldnt cook in the place all the dishes and cookware looked like salvation army cookware. The television didnt get local channels only random cable stations. I wouldnt recommend this stay, but hey you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r6804183-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6804183</t>
+  </si>
+  <si>
+    <t>02/16/2007</t>
+  </si>
+  <si>
+    <t>Worst Studio 6 ever</t>
+  </si>
+  <si>
+    <t>Don't be fooled.  I waited 3 days for hotel to fix wireless and it was never fixed.  ICloset doors are falling. Fridge in Studio has rust all on the outsideNo parking after 10 Pm Rude staff and noisy rooms.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +733,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +765,634 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_613.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r599452626-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239857</t>
+  </si>
+  <si>
+    <t>599452626</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>Great location in North Houston, with fast access to everything via I-45 and the Hardy Toll Road. The property is clean and we'll kept, same for the rooms. The staff was helpful, particularly Ricardo at the front desk. The WiFi was extremely fast. I recommend this property to anyone needing to stay in North Houston.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r599030535-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599030535</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I've stayed at this extended stay for over a year now. I have had nothing but great service, especially from Ricardo and Mr Bill, the manager. They have gone above and beyond for me and I really appreciate the service here. Thanks guys, Chris McPherson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r590731864-Studio_6_Houston_Spring-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>239857</t>
-  </si>
-  <si>
     <t>590731864</t>
   </si>
   <si>
@@ -213,6 +249,53 @@
     <t>on sat  june17,2017 I walked in the office ann was working at the time I ask if she had a room she said yes I told he I had 3 babys and a 10 year old she offerd a downstairs room for me. but it be a while ann said she save the room for me.this lady was very careing and helpful to me she went out of her way to make sure I was happy.i think we need more people like ann working and I want to thank ann very much and may god bless you</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r463573801-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463573801</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Extremely rude, unprofessional "operations manager"</t>
+  </si>
+  <si>
+    <t>I live in the Fort Worth area and a friend of mine coming off a cruise ship in Galveston had an 11 hour wait before he had to board his plane at the airport in Houston. I planned to pick him up from the cruise ship terminal, and stay with him at a motel in Houston to visit with him until it was time for him to go to the airport. I found this Studio 6 on google and chose it because it wasn't too far from the airport, along I-45. I explained to the front desk man that I reached, that I had odd check in and check out times, that I would be checking in at about 1:30am Sunday morning, then would be checking out the same day, about 19 hours later, around 8:30pm, and if that was alright. The man on the phone told me that yes, it would be alright, but I would have to use the phone outside the front doors to be let in, since the office was closed after 8pm, but no, I would not be charged for two nights, just one, and that he understood by situation.
+      I checked in after midnight and the front desk clerk was friendly and accomodating. He also stated that it would be a one night charge of $68, which we paid. The room was spacious but very simple (the most basic soap, no shampoo or other...I live in the Fort Worth area and a friend of mine coming off a cruise ship in Galveston had an 11 hour wait before he had to board his plane at the airport in Houston. I planned to pick him up from the cruise ship terminal, and stay with him at a motel in Houston to visit with him until it was time for him to go to the airport. I found this Studio 6 on google and chose it because it wasn't too far from the airport, along I-45. I explained to the front desk man that I reached, that I had odd check in and check out times, that I would be checking in at about 1:30am Sunday morning, then would be checking out the same day, about 19 hours later, around 8:30pm, and if that was alright. The man on the phone told me that yes, it would be alright, but I would have to use the phone outside the front doors to be let in, since the office was closed after 8pm, but no, I would not be charged for two nights, just one, and that he understood by situation.      I checked in after midnight and the front desk clerk was friendly and accomodating. He also stated that it would be a one night charge of $68, which we paid. The room was spacious but very simple (the most basic soap, no shampoo or other toiletries), no hairdryer, etc. but otherwise was fine. Later in the day (early evening), I was visiting with my friend that I had to take to the airport shortly, and I called the front desk to ask about paying the approximately $5.50 to use the motel's wifi. The front desk clerk said he would call me right back. A few minutes later, I got a call from another man who identified himself as the manager. He (in a very rude and confrontational tone) told me that because of my check in and check out times, I would need to pay for an additional night, immediately, and that I was not allowed to use any more of the motel's "amenities" until I complied. I tried to explain that two different people earlier at the front desk told me that I would only be charged for one night. He replied that HE is the manager, and that only he makes the decisions, and regardless of what they had told me, I am still required to pay for another night. We ended up walking back to the office and paying, although the front desk man (not the manager) was there and gave us a 1/2 off discount, and we only had to pay $34 additional.     I am a world traveler that has been to Europe, Asia, Central America, and the Caribbean, as well as all over North Armerica, and I can safely say that i have never been treated this rudely by any motel/hotel staff. If indeed it is hotel policy to pay for an additional night because of my off check in/check out times, then that is an issue that needs to be taken between the manager and the front desk clerks, who told me that paying for one night would be acceptable. It is extremely unprofessional and rude to take it out on hotel guests who only paid what they were told to originally. In addition, my partner is deaf, and nothing was offered as far as any deaf communication equipment, just for the record. There was also what appeared to be cigarette burns on the comforter and a small dead roach in the sink. Nevertheless, I still originally intended to write a positive review of the place until I was told off on the phone by what what I was told was the "operations manager" Bill Benson. Because of the his very rude, confrontational attitude, I never see myself staying at a Studio 6 ever again, and for sure not that one, and I also plan to tell my friends about this horrific experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Studio 6 Houston - Spring, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>I live in the Fort Worth area and a friend of mine coming off a cruise ship in Galveston had an 11 hour wait before he had to board his plane at the airport in Houston. I planned to pick him up from the cruise ship terminal, and stay with him at a motel in Houston to visit with him until it was time for him to go to the airport. I found this Studio 6 on google and chose it because it wasn't too far from the airport, along I-45. I explained to the front desk man that I reached, that I had odd check in and check out times, that I would be checking in at about 1:30am Sunday morning, then would be checking out the same day, about 19 hours later, around 8:30pm, and if that was alright. The man on the phone told me that yes, it would be alright, but I would have to use the phone outside the front doors to be let in, since the office was closed after 8pm, but no, I would not be charged for two nights, just one, and that he understood by situation.
+      I checked in after midnight and the front desk clerk was friendly and accomodating. He also stated that it would be a one night charge of $68, which we paid. The room was spacious but very simple (the most basic soap, no shampoo or other...I live in the Fort Worth area and a friend of mine coming off a cruise ship in Galveston had an 11 hour wait before he had to board his plane at the airport in Houston. I planned to pick him up from the cruise ship terminal, and stay with him at a motel in Houston to visit with him until it was time for him to go to the airport. I found this Studio 6 on google and chose it because it wasn't too far from the airport, along I-45. I explained to the front desk man that I reached, that I had odd check in and check out times, that I would be checking in at about 1:30am Sunday morning, then would be checking out the same day, about 19 hours later, around 8:30pm, and if that was alright. The man on the phone told me that yes, it would be alright, but I would have to use the phone outside the front doors to be let in, since the office was closed after 8pm, but no, I would not be charged for two nights, just one, and that he understood by situation.      I checked in after midnight and the front desk clerk was friendly and accomodating. He also stated that it would be a one night charge of $68, which we paid. The room was spacious but very simple (the most basic soap, no shampoo or other toiletries), no hairdryer, etc. but otherwise was fine. Later in the day (early evening), I was visiting with my friend that I had to take to the airport shortly, and I called the front desk to ask about paying the approximately $5.50 to use the motel's wifi. The front desk clerk said he would call me right back. A few minutes later, I got a call from another man who identified himself as the manager. He (in a very rude and confrontational tone) told me that because of my check in and check out times, I would need to pay for an additional night, immediately, and that I was not allowed to use any more of the motel's "amenities" until I complied. I tried to explain that two different people earlier at the front desk told me that I would only be charged for one night. He replied that HE is the manager, and that only he makes the decisions, and regardless of what they had told me, I am still required to pay for another night. We ended up walking back to the office and paying, although the front desk man (not the manager) was there and gave us a 1/2 off discount, and we only had to pay $34 additional.     I am a world traveler that has been to Europe, Asia, Central America, and the Caribbean, as well as all over North Armerica, and I can safely say that i have never been treated this rudely by any motel/hotel staff. If indeed it is hotel policy to pay for an additional night because of my off check in/check out times, then that is an issue that needs to be taken between the manager and the front desk clerks, who told me that paying for one night would be acceptable. It is extremely unprofessional and rude to take it out on hotel guests who only paid what they were told to originally. In addition, my partner is deaf, and nothing was offered as far as any deaf communication equipment, just for the record. There was also what appeared to be cigarette burns on the comforter and a small dead roach in the sink. Nevertheless, I still originally intended to write a positive review of the place until I was told off on the phone by what what I was told was the "operations manager" Bill Benson. Because of the his very rude, confrontational attitude, I never see myself staying at a Studio 6 ever again, and for sure not that one, and I also plan to tell my friends about this horrific experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r387241019-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387241019</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I really liked the new rooms. The Location was ok, and  seemed safe. But a little loud at night. I really did enjoy my stay at studio6 . The front desk people were nice. I would recommend to a friend. And I will be back.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r297375465-Studio_6_Houston_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -282,6 +365,36 @@
     <t>You get what you pay for...most of the time. For $55 per night (queen, Nov 2013) I'm not expecting a Sleep Number bed. I do expect a clean room. I was on a road trip about 4 hours from home. Whenever I know I'm sleeping in a low-end motel I travel with a memory foam pad and a sleeping bag and my own pillows. I am VERY thankful I did. The mattress - it had a plastic cover on it. I was afraid to look under the pad at the actual mattress, so I didn't. The bathroom walls needed to be wiped down - they had a drippy look, as though condensation built up and ran through the dirt on the walls over time. The refrigerator was incredibly dirty on the outside. It looked clean enough inside, but I was concerned so I kept my food in my little cooler that I had for the drive. The tub was dirty on the walls, and had mildew built up on the silicone calk around the faucet. It appeared to have had a 'once over' type of cleaning but a deeper clean was badly needed. Also, there was evidence of many residents living there. For the grounds - dirty, dirty dirty. It was obvious it had been weeks since a good sweeping had been done - leaves, dirt, grime was built up in all the corners of the stairs and anywhere else...You get what you pay for...most of the time. For $55 per night (queen, Nov 2013) I'm not expecting a Sleep Number bed. I do expect a clean room. I was on a road trip about 4 hours from home. Whenever I know I'm sleeping in a low-end motel I travel with a memory foam pad and a sleeping bag and my own pillows. I am VERY thankful I did. The mattress - it had a plastic cover on it. I was afraid to look under the pad at the actual mattress, so I didn't. The bathroom walls needed to be wiped down - they had a drippy look, as though condensation built up and ran through the dirt on the walls over time. The refrigerator was incredibly dirty on the outside. It looked clean enough inside, but I was concerned so I kept my food in my little cooler that I had for the drive. The tub was dirty on the walls, and had mildew built up on the silicone calk around the faucet. It appeared to have had a 'once over' type of cleaning but a deeper clean was badly needed. Also, there was evidence of many residents living there. For the grounds - dirty, dirty dirty. It was obvious it had been weeks since a good sweeping had been done - leaves, dirt, grime was built up in all the corners of the stairs and anywhere else it could hide. I recommend highly that you stay someplace else.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r141706616-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141706616</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Do not stay here!!</t>
+  </si>
+  <si>
+    <t>My room, bed, and bathroom was dirty and not clean. The sheets had blood stains, cigarette burns, and hair...after taking a shower I reached for a towel that had someones hair all in the towels with stains all over the towels...the towels looked dirty and not clean...this was my worst experience staying at a hotel...I will never stay at a motel 6 again...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r97895914-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>97895914</t>
+  </si>
+  <si>
+    <t>02/24/2011</t>
+  </si>
+  <si>
+    <t>Stay somewhere else!</t>
+  </si>
+  <si>
+    <t>stay somewhere else if you can afford it. Rooms are tiny,dirty,poorly lighted and noisy. There is supposed to be security on site but people still worked on their car at 2:00am or partied all night.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r36063259-Studio_6_Houston_Spring-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,9 +434,6 @@
     <t>February 2009</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>The only reason I stayed in this studio was because I relocated to Houston within a week, so I had to get to a place kind of quickly, looking at the website I saw that the facilities were actually pretty decent. Upon check in I had an issue where someone rather than myself was paying for the room with a credit card that they had reserved online, but when I arrived at the hotel I was told if the person is not present I couldnt check in even though the person reserverd the room under my name but paid for it with their card. With that being said I had to fax forms back and forth stating that everything was legit. With credit card theft pretty rampant I couldnt complain. When I got to the room the room smell like old carpet. the mattress on the bed was about 6 inches thick. (cheap thin mattress) and the mattress sunk in the middle,  I could only imagine, what has happened in that room. The bathroom shower had mold on the shower tile, and the lighting was poor. I had to buy my own clorox bleach spray to make sure the shower was clean to my liking. I wouldnt cook in the place all the dishes and cookware looked like salvation army cookware. The television didnt get local channels only random cable stations. I wouldnt recommend this stay, but hey you get...The only reason I stayed in this studio was because I relocated to Houston within a week, so I had to get to a place kind of quickly, looking at the website I saw that the facilities were actually pretty decent. Upon check in I had an issue where someone rather than myself was paying for the room with a credit card that they had reserved online, but when I arrived at the hotel I was told if the person is not present I couldnt check in even though the person reserverd the room under my name but paid for it with their card. With that being said I had to fax forms back and forth stating that everything was legit. With credit card theft pretty rampant I couldnt complain. When I got to the room the room smell like old carpet. the mattress on the bed was about 6 inches thick. (cheap thin mattress) and the mattress sunk in the middle,  I could only imagine, what has happened in that room. The bathroom shower had mold on the shower tile, and the lighting was poor. I had to buy my own clorox bleach spray to make sure the shower was clean to my liking. I wouldnt cook in the place all the dishes and cookware looked like salvation army cookware. The television didnt get local channels only random cable stations. I wouldnt recommend this stay, but hey you get what you pay for.More</t>
   </si>
   <si>
@@ -340,6 +450,21 @@
   </si>
   <si>
     <t>Don't be fooled.  I waited 3 days for hotel to fix wireless and it was never fixed.  ICloset doors are falling. Fridge in Studio has rust all on the outsideNo parking after 10 Pm Rude staff and noisy rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239857-r4122869-Studio_6_Houston_Spring-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4122869</t>
+  </si>
+  <si>
+    <t>11/16/2005</t>
+  </si>
+  <si>
+    <t>Avoid If You Can</t>
+  </si>
+  <si>
+    <t>Sadly, this hotel stated a rate of 20% more than what I had reserved the room for on Orbitz. When I showed the clerk my printed reservation, I was told that the rates had gone up the day before. I did not even bother to ask him why did he ask for my printed reservation or ask me when I made the reservation, if the response to the rate increase was the rates had gone up the day before. I will never return to this Studio 6, I probably will not stay at another one either.</t>
   </si>
 </sst>
 </file>
@@ -884,14 +1009,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -935,13 +1056,13 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -955,7 +1076,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -971,7 +1092,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -980,34 +1101,32 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1018,7 +1137,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1174,7 @@
         <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
         <v>70</v>
@@ -1103,46 +1222,42 @@
         <v>74</v>
       </c>
       <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
       <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1158,7 +1273,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1167,49 +1282,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1225,7 +1340,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1234,37 +1349,37 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1272,7 +1387,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1403,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1297,49 +1412,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1355,7 +1460,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1364,35 +1469,478 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
         <v>104</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
       <c r="Y10" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31363</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
